--- a/biology/Médecine/Liste_de_maladies_humaines_par_taux_de_létalité/Liste_de_maladies_humaines_par_taux_de_létalité.xlsx
+++ b/biology/Médecine/Liste_de_maladies_humaines_par_taux_de_létalité/Liste_de_maladies_humaines_par_taux_de_létalité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_humaines_par_taux_de_l%C3%A9talit%C3%A9</t>
+          <t>Liste_de_maladies_humaines_par_taux_de_létalité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies infectieuses humaines peuvent être caractérisées par leur taux de létalité (en anglais: Case Fatality Rate CFR), la proportion de personnes diagnostiquées avec une maladie qui en meurent (cf. taux de mortalité). Il ne doit pas être confondu avec le taux de létalité de l’infection (en anglais: Infection Fatality Rate IFR), la proportion estimée de personnes infectées par un agent pathogène, y compris les infections asymptomatiques et non diagnostiquées, qui meurent de la maladie. L'IFR ne peut pas être supérieur au CFR et est souvent beaucoup plus bas, mais il est également beaucoup plus difficile à calculer. Les données sont basées sur des patients traités de manière optimale et excluent les cas isolés ou les épidémies mineures, sauf indication contraire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_humaines_par_taux_de_l%C3%A9talit%C3%A9</t>
+          <t>Liste_de_maladies_humaines_par_taux_de_létalité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
